--- a/resources/prais2022.xlsx
+++ b/resources/prais2022.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Projects\PRAiS2\xlsx-to-edn\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9463613-FF73-47E9-BEBE-98D31BF420F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="3675" windowWidth="21915" windowHeight="12330"/>
+    <workbookView xWindow="2595" yWindow="1965" windowWidth="35805" windowHeight="19635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,9 +88,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -594,7 +590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -642,7 +638,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="14" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="9" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title 2" xfId="41"/>
+    <cellStyle name="Title 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="13" builtinId="11" customBuiltin="1"/>
   </cellStyles>
@@ -955,7 +951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
